--- a/TestList/fjkj200507.xlsx
+++ b/TestList/fjkj200507.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12090"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="54">
   <si>
     <t>序号
 （id）</t>
@@ -75,7 +75,7 @@
     <t>点击</t>
   </si>
   <si>
-    <t>/html/body/div[10]/div/table/tbody/tr[1]/td/button</t>
+    <t>//button[contains(@class,'ui-dialog-autofocus')]</t>
   </si>
   <si>
     <t>Account number</t>
@@ -87,7 +87,7 @@
     <t>//input[contains(@name,'identify')]</t>
   </si>
   <si>
-    <t>350102199206114126</t>
+    <t>350102197007090409</t>
   </si>
   <si>
     <t>password</t>
@@ -96,7 +96,7 @@
     <t>//input[contains(@name,'passWord')]</t>
   </si>
   <si>
-    <t>a000000</t>
+    <t>abc123</t>
   </si>
   <si>
     <t>click code</t>
@@ -117,6 +117,12 @@
     <t>adce</t>
   </si>
   <si>
+    <t>click num</t>
+  </si>
+  <si>
+    <t>//*[@id="slides"]/li[1]</t>
+  </si>
+  <si>
     <t>login</t>
   </si>
   <si>
@@ -132,7 +138,7 @@
     <t>enterstudentclass</t>
   </si>
   <si>
-    <t>//a[contains(@class,'btn-r btn-r-1 fr')]</t>
+    <t>https://www.kjjxjy.com/center/myStudy/goods</t>
   </si>
   <si>
     <t>click study statics</t>
@@ -208,6 +214,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -222,7 +235,92 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,32 +336,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,75 +348,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -352,187 +358,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,35 +554,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,17 +600,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,25 +649,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,131 +667,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1149,10 +1155,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1161,7 +1167,7 @@
     <col min="2" max="2" width="25" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="106.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="128" style="3" customWidth="1"/>
     <col min="6" max="6" width="24.625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -1199,7 +1205,7 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1366,12 +1372,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:6">
+    <row r="11" customFormat="1" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
@@ -1380,18 +1386,18 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
@@ -1399,11 +1405,11 @@
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" t="s">
-        <v>32</v>
+      <c r="E12" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1411,36 +1417,36 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:6">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
@@ -1454,19 +1460,19 @@
         <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:6">
+    <row r="16" customFormat="1" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" s="1" customFormat="1" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1494,13 +1500,13 @@
         <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
@@ -1511,15 +1517,15 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1534,13 +1540,13 @@
         <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>14</v>
+      <c r="E19" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1551,16 +1557,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -1574,10 +1580,10 @@
         <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
         <v>50</v>
@@ -1594,36 +1600,53 @@
         <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24:D33">
       <formula1>"URL,Xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C36">
       <formula1>"访问,输入,点击,等待"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:D65531">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34:D35">
+      <formula1>"URL、Xpath"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D36:D65532">
       <formula1>"xpath,name,id,css,text"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33:D34">
-      <formula1>"URL、Xpath"</formula1>
-    </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://www.kjjxjy.com/index" tooltip="https://www.kjjxjy.com/index"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
